--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="876"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="876" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$E$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Actions in Activity'!$A$1:$D$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activities in Page'!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activities in Page'!$A$1:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Activities Labels'!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="208">
   <si>
     <t>Operation</t>
   </si>
@@ -279,57 +280,30 @@
     <t>core_group_admin</t>
   </si>
   <si>
-    <t>Forecast Management BottomUp Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Forecast Management</t>
   </si>
   <si>
-    <t>Forecaster What if BottomUp Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] What-If Management</t>
   </si>
   <si>
-    <t>Import Manual Forecast Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Import Manual Forecast</t>
   </si>
   <si>
-    <t>Model Configuration Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Model Configuration And Estimation</t>
   </si>
   <si>
-    <t>Model Hierarchy Visualization Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Model Hierarchy Visualization</t>
   </si>
   <si>
-    <t>Model Selection Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Model Selection</t>
   </si>
   <si>
-    <t>Schedule Estimation BottomUp Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Schedule Estimation for Instances In Aggregate</t>
   </si>
   <si>
-    <t>Schedule Forecast BottomUp Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Schedule Forecast For Instances In Aggregate</t>
   </si>
   <si>
-    <t>Schedule Forecast BottomUp Rolling Nomination</t>
-  </si>
-  <si>
     <t>forecast_scope=Prelevato&amp;mode=BOTTOMUP&amp;kpiFormula=Lib_SP.SP&amp;offset_reference_date=today&amp;offset_start_date=400&amp;offset_end_date=30&amp;</t>
   </si>
   <si>
@@ -426,45 +400,18 @@
     <t>Manage Input Series For Forecast Scope</t>
   </si>
   <si>
-    <t>Schedule Forecast Level Rolling Firm</t>
-  </si>
-  <si>
-    <t>Schedule Estimation Level Nomination</t>
-  </si>
-  <si>
-    <t>Models Status Report Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Generate Models Status Report</t>
   </si>
   <si>
-    <t>A_DP RPM Nomination</t>
-  </si>
-  <si>
     <t>[Wizard Editor] Wizard Execution On Instance</t>
   </si>
   <si>
-    <t>Estimation TopDown Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Instance Estimation</t>
   </si>
   <si>
-    <t>Accenture Expected Com Non Firm Demand Forecast</t>
-  </si>
-  <si>
-    <t>Forecaster What if TopDown Nomination</t>
-  </si>
-  <si>
-    <t>Forecast TopDown Nomination</t>
-  </si>
-  <si>
     <t>[Forecaster] Run Forecast</t>
   </si>
   <si>
-    <t>Visual Modeling Firm</t>
-  </si>
-  <si>
     <t>[Forecaster] Visual Modeling</t>
   </si>
   <si>
@@ -537,12 +484,6 @@
     <t>Estimation top down</t>
   </si>
   <si>
-    <t>Gestione Previsioni</t>
-  </si>
-  <si>
-    <t>Forecast Management</t>
-  </si>
-  <si>
     <t>Backtesting</t>
   </si>
   <si>
@@ -612,9 +553,6 @@
     <t>forecast_scope=Versamento&amp;kpiFormula=LIB_UtilFunctions.defaultMape&amp;kpiFormulaLabel=MAPE %</t>
   </si>
   <si>
-    <t>Schedule Forecast TopDown Rolling Nomination</t>
-  </si>
-  <si>
     <t>Schedule Forecast TopDown Propagation Rolling Prelevato</t>
   </si>
   <si>
@@ -714,24 +652,12 @@
     <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;withDate=NO&amp;partitioningEnabled=TRUE&amp;weightMainAttribute=PRC_LIVELLO_SERVIZIO&amp;</t>
   </si>
   <si>
-    <t>forecast_scope=Prelevato&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=NSE;A-MAPE(%);MAE;PBIAS(%);RMSE,A-MPE;A-WAPE</t>
-  </si>
-  <si>
-    <t>forecast_scope=PrelevatoAggr&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=NSE;A-MAPE(%);MAE;PBIAS(%);RMSE,A-MPE;A-WAPE&amp;mode=TOPDOWN</t>
-  </si>
-  <si>
-    <t>forecast_scope=Versamento&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=NSE;A-MAPE(%);MAE;PBIAS(%);RMSE,A-MPE;A-WAPE&amp;mode=TOPDOWN</t>
-  </si>
-  <si>
     <t>Schedule KPI on objects in current aggr</t>
   </si>
   <si>
     <t>Schedule KPI on aggregates contained in current one</t>
   </si>
   <si>
-    <t>Schedula i KPI per il fabbisogno atteso sulle aree di mercato contenute nell'aggregato</t>
-  </si>
-  <si>
     <t>Schedula i KPI per il fabbisogno atteso sull'aggregato corrente e tutti i sottostanti</t>
   </si>
   <si>
@@ -774,9 +700,6 @@
     <t>Forecast Management BOTTOMUP Prelevato</t>
   </si>
   <si>
-    <t>Gestione Previsioni a valle</t>
-  </si>
-  <si>
     <t>Forecast Management BOTTOMUP</t>
   </si>
   <si>
@@ -813,9 +736,6 @@
     <t>Schedule KPI on aggregates contained in current one  PrelievoAggr</t>
   </si>
   <si>
-    <t>A_PuntoPrelievo Schedule Estimation for Instances In Aggregate LVL</t>
-  </si>
-  <si>
     <t>forecast_scope=PrelevatoAggr&amp;mode=LEVEL&amp;</t>
   </si>
   <si>
@@ -825,12 +745,6 @@
     <t>Schedule Estimation Below Level</t>
   </si>
   <si>
-    <t>A_POD ForecastPOD Schedule Forecast For Instances In Aggregate LVL</t>
-  </si>
-  <si>
-    <t>A_POD ForecastPOD Schedule Forecast For Instances In Aggregate LVL_WD</t>
-  </si>
-  <si>
     <t>A_PuntoPrelievo Schedule Estimation for Instances In Aggregate</t>
   </si>
   <si>
@@ -870,13 +784,55 @@
     <t>wizardName=Aggr_scheduleKpiForAllOjbsInAggr&amp;optionalParam1=A_PUNTOPRELIEVO_VERSAMENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">Schedula propagazione ripartizione a monte  </t>
-  </si>
-  <si>
     <t>A_PuntoDiPrelievo Time Series Chart</t>
   </si>
   <si>
     <t>timeseries_set=A_PuntoDiPrelievo.A_IMP_TOT_VERSAMENTO;A_PuntoDiPrelievo.A_IMP_TOT_PRELEVATO;A_PuntoDiPrelievo.A_NUM_MINUTI_PUNTO_ATTIVO;A_PuntoDiPrelievo.A_NUM_MINUTI_BANCONOTE;A_PuntoDiPrelievo.A_PRC_AVAILABILITY;A_PuntoDiPrelievo.A_PRC_LIVELLO_SERVIZIO;A_PuntoDiPrelievo.A_NUM_PRELIEVI;A_PuntoDiPrelievo.A_NUM_VERSAMENTI;&amp;timeseries_selected=TRUE;TRUE;FALSE;FALSE;FALSE;FALSE;FALSE;FALSE&amp;</t>
+  </si>
+  <si>
+    <t>forecast_scope=Prelevato&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE&amp;mode=TOPDOWN</t>
+  </si>
+  <si>
+    <t>forecast_scope=Versamento&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE&amp;mode=TOPDOWN</t>
+  </si>
+  <si>
+    <t>Schedula riproporzione a monte</t>
+  </si>
+  <si>
+    <t>Gestione Previsioni Prelevato</t>
+  </si>
+  <si>
+    <t>Gestioni Previsioni Versato</t>
+  </si>
+  <si>
+    <t>Forecast Management Prelevato</t>
+  </si>
+  <si>
+    <t>Forecast Management Versato</t>
+  </si>
+  <si>
+    <t>Gestione Previsioni Prelevato a monte</t>
+  </si>
+  <si>
+    <t>Gestione Previsioni Prelevato a valle</t>
+  </si>
+  <si>
+    <t>Gestioni Previsioni Versato a valle</t>
+  </si>
+  <si>
+    <t>forecast_scope=Prelevato&amp;mode=TOPDOWN&amp;kpiFormula=Lib_SP.SP&amp;offset_reference_date=today&amp;offset_start_date=400&amp;offset_end_date=30&amp;</t>
+  </si>
+  <si>
+    <t>Forecast Management TopDown PrelevatoAggr</t>
+  </si>
+  <si>
+    <t>Schedula i KPI per il fabbisogno atteso sulle istanze contenute nell’aggregato contenute nell'aggregato</t>
+  </si>
+  <si>
+    <t>Grafico Serie</t>
   </si>
 </sst>
 </file>
@@ -951,7 +907,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +925,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -982,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,6 +969,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2609,7 +2579,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2657,7 +2627,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2705,7 +2675,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2719,6 +2689,1446 @@
         <a:xfrm>
           <a:off x="0" y="200025"/>
           <a:ext cx="12534900" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="14830425" cy="190500"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3729,17 +5139,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="64.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="55.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -3766,237 +5176,237 @@
         <v>21</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -4004,150 +5414,150 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
       <c r="E23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -4155,101 +5565,101 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -4257,118 +5667,118 @@
         <v>21</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
       <c r="E31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
         <v>28</v>
       </c>
-      <c r="E32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
       <c r="E35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -4376,152 +5786,152 @@
         <v>21</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
       <c r="E38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -4529,16 +5939,16 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -4546,189 +5956,213 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
         <v>190</v>
       </c>
-      <c r="C48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="13" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" t="s">
-        <v>222</v>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E58">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="[Forecaster] Forecast Management"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4767,7 +6201,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4775,7 +6209,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4783,7 +6217,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4791,7 +6225,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4799,7 +6233,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4807,7 +6241,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4815,7 +6249,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4823,7 +6257,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4831,7 +6265,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4843,11 +6277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4872,757 +6305,757 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D16" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D24" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D31" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D32" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D34" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D35" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D37" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D39" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D40" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D42" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D44" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D45" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D46" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D50" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D51" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D53" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D54" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D55" s="4">
         <v>9</v>
@@ -5633,360 +7066,360 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D57" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D60" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D61" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D62" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D63" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D64" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D65" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D68" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D69" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D70" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D71" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D72" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D73" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D74" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D75" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D76" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D77" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D78" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D79" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D80" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4">
         <v>16</v>
@@ -5997,24 +7430,16 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D82">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="A_PuntoDiPrelievo Time Series Chart"/>
-        <filter val="PuntoDiPrelievo Time Series Chart"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A38:D55">
     <sortCondition ref="C2:C77"/>
     <sortCondition ref="D2:D77"/>
@@ -6032,7 +7457,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6112,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -6168,7 +7593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6182,40 +7607,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
@@ -6224,12 +7649,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -6238,12 +7663,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -6252,67 +7677,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>140</v>
+      <c r="B18" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D19" s="5">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D17">
+  <autoFilter ref="A1:D19">
     <filterColumn colId="2">
       <filters>
-        <filter val="A_PuntoDiPrelievo"/>
+        <filter val="PuntoDiPrelievo"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6482,10 +7907,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -6496,10 +7921,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -6510,7 +7935,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
@@ -6524,7 +7949,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -6538,7 +7963,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -6549,13 +7974,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -6563,13 +7988,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -6580,10 +8005,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -6594,10 +8019,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -6737,10 +8162,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6763,652 +8188,663 @@
     </row>
     <row r="2" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
         <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
+        <v>205</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" t="s">
-        <v>220</v>
+        <v>155</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B47" t="s">
-        <v>188</v>
+        <v>162</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" t="s">
-        <v>188</v>
+        <v>164</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C59">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:C60">
+    <filterColumn colId="1">
       <filters>
-        <filter val="A_PuntoDiPrelievo Time Series Chart"/>
         <filter val="PuntoDiPrelievo Time Series Chart"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7416,8 +8852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -7439,104 +8875,105 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="876" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activities in Page'!$A$1:$D$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Activities Labels'!$A$1:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="216">
   <si>
     <t>Operation</t>
   </si>
@@ -829,10 +829,34 @@
     <t>Forecast Management TopDown PrelevatoAggr</t>
   </si>
   <si>
-    <t>Schedula i KPI per il fabbisogno atteso sulle istanze contenute nell’aggregato contenute nell'aggregato</t>
-  </si>
-  <si>
     <t>Grafico Serie</t>
+  </si>
+  <si>
+    <t>Schedula i KPI per il fabbisogno atteso sulle istanze contenute nell’aggregato</t>
+  </si>
+  <si>
+    <t>intesa_user</t>
+  </si>
+  <si>
+    <t>Task Schedule Business</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Workflow Business</t>
+  </si>
+  <si>
+    <t>KPI thresholds</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
+  </si>
+  <si>
+    <t>intesa_admin</t>
+  </si>
+  <si>
+    <t>forecast_scope=Versamento&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE&amp;mode=BOTTOMUP</t>
   </si>
 </sst>
 </file>
@@ -851,47 +875,56 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1043,7 +1076,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1091,7 +1124,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1139,7 +1172,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1187,7 +1220,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1235,7 +1268,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1283,7 +1316,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1331,7 +1364,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1379,7 +1412,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1427,7 +1460,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1475,7 +1508,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1523,7 +1556,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1571,7 +1604,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1619,7 +1652,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1667,7 +1700,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1715,7 +1748,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1763,7 +1796,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1811,7 +1844,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1859,7 +1892,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1907,7 +1940,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1955,7 +1988,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2003,7 +2036,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2051,7 +2084,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2099,7 +2132,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2147,7 +2180,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2195,7 +2228,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2243,7 +2276,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2291,7 +2324,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2339,7 +2372,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2387,7 +2420,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2435,7 +2468,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2483,7 +2516,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2531,7 +2564,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2573,13 +2606,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2621,13 +2654,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2669,13 +2702,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2717,13 +2750,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2765,13 +2798,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2813,13 +2846,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2861,13 +2894,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2909,13 +2942,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2957,13 +2990,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3005,13 +3038,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3053,13 +3086,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3101,13 +3134,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3149,13 +3182,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3197,13 +3230,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3245,13 +3278,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3293,13 +3326,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3341,13 +3374,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3389,13 +3422,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3437,13 +3470,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3485,13 +3518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3533,13 +3566,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3581,13 +3614,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3629,13 +3662,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3677,13 +3710,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3725,13 +3758,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3773,13 +3806,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3821,13 +3854,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3869,13 +3902,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3917,13 +3950,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3965,13 +3998,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4013,13 +4046,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4061,13 +4094,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4109,13 +4142,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4643,7 +4676,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4691,7 +4724,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5139,11 +5172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5188,7 +5220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5205,7 +5237,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5222,7 +5254,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5239,7 +5271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5256,7 +5288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5273,7 +5305,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5290,7 +5322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5307,7 +5339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5324,7 +5356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5341,7 +5373,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5358,7 +5390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5375,7 +5407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5392,7 +5424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5426,7 +5458,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -5443,7 +5475,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5460,7 +5492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5477,7 +5509,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5492,7 +5524,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5509,7 +5541,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5526,7 +5558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5543,7 +5575,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5577,7 +5609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -5594,7 +5626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -5611,7 +5643,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -5628,11 +5660,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C29" t="s">
@@ -5645,11 +5677,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C30" t="s">
@@ -5666,20 +5698,20 @@
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -5696,7 +5728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -5713,7 +5745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5730,208 +5762,208 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
+      <c r="B37" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>128</v>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" t="s">
-        <v>133</v>
+      <c r="B43" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>160</v>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5939,230 +5971,206 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
-      <c r="B48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" t="s">
-        <v>164</v>
+      <c r="B48" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
         <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>166</v>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
       </c>
       <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
         <v>64</v>
       </c>
-      <c r="E50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
         <v>30</v>
       </c>
-      <c r="E53" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" t="s">
-        <v>29</v>
-      </c>
       <c r="E55" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
         <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E58">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="[Forecaster] Forecast Management"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7453,7 +7461,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7481,7 +7488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -7495,7 +7502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -7509,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -7523,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -7551,7 +7558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7565,7 +7572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -7579,7 +7586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -7607,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +7628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -7677,7 +7684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -7705,7 +7712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -7719,7 +7726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -7734,13 +7741,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D19">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="PuntoDiPrelievo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7749,10 +7749,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -7974,10 +7974,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>127</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>98</v>
@@ -7988,10 +7988,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>98</v>
@@ -8004,14 +8004,14 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
+      <c r="B18" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8019,13 +8019,265 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
+      <c r="D33" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8037,10 +8289,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8115,6 +8367,61 @@
       </c>
       <c r="C6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8161,11 +8468,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8186,7 +8492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -8197,7 +8503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
@@ -8208,7 +8514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -8219,7 +8525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -8230,7 +8536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8241,7 +8547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -8252,7 +8558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -8263,7 +8569,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -8274,7 +8580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -8285,7 +8591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -8296,7 +8602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -8307,7 +8613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -8318,7 +8624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -8329,7 +8635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -8340,7 +8646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -8351,7 +8657,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>74</v>
       </c>
@@ -8362,7 +8668,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -8373,7 +8679,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -8384,7 +8690,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -8395,7 +8701,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8406,7 +8712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -8417,7 +8723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -8428,7 +8734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -8439,7 +8745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -8450,7 +8756,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>104</v>
       </c>
@@ -8461,7 +8767,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -8472,7 +8778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -8483,7 +8789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -8499,13 +8805,13 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>120</v>
       </c>
@@ -8516,7 +8822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -8527,7 +8833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -8538,7 +8844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -8549,7 +8855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -8560,7 +8866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -8571,7 +8877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -8582,7 +8888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>128</v>
       </c>
@@ -8593,7 +8899,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -8604,7 +8910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>130</v>
       </c>
@@ -8615,7 +8921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -8626,7 +8932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -8637,7 +8943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -8648,18 +8954,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>160</v>
       </c>
@@ -8670,7 +8976,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>155</v>
       </c>
@@ -8681,7 +8987,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -8692,7 +8998,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -8703,18 +9009,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>166</v>
       </c>
@@ -8725,7 +9031,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -8736,7 +9042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -8747,7 +9053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -8758,18 +9064,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>174</v>
       </c>
@@ -8780,7 +9086,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -8791,7 +9097,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -8802,7 +9108,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -8818,13 +9124,13 @@
         <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -8836,13 +9142,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C60">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PuntoDiPrelievo Time Series Chart"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8853,7 +9152,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8878,7 +9177,7 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>154</v>
@@ -8889,7 +9188,7 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
         <v>152</v>
@@ -8900,7 +9199,7 @@
         <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
         <v>153</v>
@@ -8911,7 +9210,7 @@
         <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
@@ -8922,7 +9221,7 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>108</v>
@@ -8933,10 +9232,10 @@
         <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -8966,14 +9265,13 @@
         <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Activities Labels" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$E$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Actions in Activity'!$A$1:$D$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Actions in Activity'!$A$1:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activities in Page'!$A$1:$D$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Activities Labels'!$A$1:$C$10</definedName>
   </definedNames>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="215">
   <si>
     <t>Operation</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Schedula Stima a monte sottostanti</t>
   </si>
   <si>
-    <t>Schedule Estimation below level</t>
-  </si>
-  <si>
     <t>Report Stato Modelli</t>
   </si>
   <si>
@@ -640,9 +637,6 @@
     <t>forecast_scope=PrelevatoAggr&amp;covarSelectionComparisonPeriodLength=90&amp;</t>
   </si>
   <si>
-    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;</t>
-  </si>
-  <si>
     <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;kpiFormula=Lib_SP.SP&amp;offset_reference_date=today&amp;offset_start_date=400&amp;offset_end_date=30&amp;</t>
   </si>
   <si>
@@ -694,9 +688,6 @@
     <t>Schedule KPI on aggregates contained in current one  Prelievo</t>
   </si>
   <si>
-    <t>forecast_scope=PrelevatoAggr&amp;mode=BOTTOMUP&amp;kpiFormula=Lib_SP.SP&amp;offset_reference_date=today&amp;offset_start_date=400&amp;offset_end_date=30&amp;</t>
-  </si>
-  <si>
     <t>Forecast Management BOTTOMUP Prelevato</t>
   </si>
   <si>
@@ -727,9 +718,6 @@
     <t>Schedule Forecast Level Prelevato</t>
   </si>
   <si>
-    <t>Schedula Previsione a monte sottostanti</t>
-  </si>
-  <si>
     <t>Schedule KPI on objects in current aggr PrelievoAggr</t>
   </si>
   <si>
@@ -757,33 +745,15 @@
     <t>forecast_scope=PrelevatoAggr&amp;mode=LEVEL&amp;withDate=NO&amp;startDateOffset=48&amp;</t>
   </si>
   <si>
-    <t>forecast_scope=PrelevatoAggr&amp;mode=LEVEL&amp;withDate=YES&amp;</t>
-  </si>
-  <si>
     <t>Schedula previsione rolling a monte aggregati sottostanti</t>
   </si>
   <si>
     <t>Schedule rolling forecast Below Level</t>
   </si>
   <si>
-    <t>Schedula previsione a monte aggregati sottostanti</t>
-  </si>
-  <si>
-    <t>Schedule forecast Below Level</t>
-  </si>
-  <si>
     <t>wizardName=Aggr_scheduleKpiForAggrs&amp;optionalParam1=PUNTOPRELIEVO_PRELEVATO</t>
   </si>
   <si>
-    <t>wizardName=Aggr_scheduleKpiForAllOjbsInAggr&amp;optionalParam1=A_PUNTOPRELIEVO_PRELEVATO</t>
-  </si>
-  <si>
-    <t>wizardName=Aggr_scheduleKpiForAggrs&amp;optionalParam1=PUNTOPRELIEVO_VERSAMENTO</t>
-  </si>
-  <si>
-    <t>wizardName=Aggr_scheduleKpiForAllOjbsInAggr&amp;optionalParam1=A_PUNTOPRELIEVO_VERSAMENTO</t>
-  </si>
-  <si>
     <t>A_PuntoDiPrelievo Time Series Chart</t>
   </si>
   <si>
@@ -793,9 +763,6 @@
     <t>forecast_scope=Prelevato&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE</t>
   </si>
   <si>
-    <t>forecast_scope=PrelevatoAggr&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE&amp;mode=TOPDOWN</t>
-  </si>
-  <si>
     <t>forecast_scope=Versamento&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE&amp;mode=TOPDOWN</t>
   </si>
   <si>
@@ -857,6 +824,36 @@
   </si>
   <si>
     <t>forecast_scope=Versamento&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE&amp;mode=BOTTOMUP</t>
+  </si>
+  <si>
+    <t>forecast_scope=Prelevato&amp;mode=TOPDOWN&amp;</t>
+  </si>
+  <si>
+    <t>wizardName=Aggr_scheduleKpiForAggrs&amp;optionalParam1=A_PUNTOPRELIEVO_VERSAMENTO</t>
+  </si>
+  <si>
+    <t>wizardName=Aggr_scheduleKpiForAllOjbsInAggr&amp;optionalParam1=PUNTOPRELIEVO_VERSAMENTO</t>
+  </si>
+  <si>
+    <t>wizardName=Aggr_scheduleKpiForAggrs&amp;optionalParam1=A_PUNTOPRELIEVO_PRELEVATO</t>
+  </si>
+  <si>
+    <t>wizardName=Aggr_scheduleKpiForAllOjbsInAggr&amp;optionalParam1=PUNTOPRELIEVO_PRELEVATO</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;kpiFormula=KpiLibrary.backtestingKpi&amp;kpiFormulaLabel=A-MAPE(%);MAE;RMSE;A-MPE;A-WAPE</t>
+  </si>
+  <si>
+    <t>Schedula Stima a monte</t>
+  </si>
+  <si>
+    <t>Schedule Estimation Top Down</t>
+  </si>
+  <si>
+    <t>Schedule Estimation TopDown Prelevato</t>
+  </si>
+  <si>
+    <t>Schedula Previsione  a monte sottostanti</t>
   </si>
 </sst>
 </file>
@@ -966,7 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1073,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1124,7 +1121,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1172,7 +1169,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1220,7 +1217,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1268,7 +1265,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1316,7 +1313,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1364,7 +1361,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1412,7 +1409,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1460,7 +1457,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1508,7 +1505,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1556,7 +1553,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1604,7 +1601,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1652,7 +1649,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1700,7 +1697,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1748,7 +1745,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1796,7 +1793,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1844,7 +1841,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1892,7 +1889,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1940,7 +1937,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1988,7 +1985,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2036,7 +2033,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2084,7 +2081,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2132,7 +2129,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2180,7 +2177,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2228,7 +2225,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2276,7 +2273,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2324,7 +2321,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2372,7 +2369,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2420,7 +2417,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2468,7 +2465,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2516,7 +2513,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2564,7 +2561,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2606,13 +2603,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2654,13 +2651,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2702,13 +2699,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2750,13 +2747,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2798,13 +2795,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2846,13 +2843,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2894,13 +2891,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2942,13 +2939,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2990,13 +2987,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3038,13 +3035,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3086,13 +3083,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3134,13 +3131,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3182,13 +3179,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3230,13 +3227,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3278,13 +3275,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3326,13 +3323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3374,13 +3371,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3422,13 +3419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3470,13 +3467,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3518,13 +3515,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3566,13 +3563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3614,13 +3611,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3662,13 +3659,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3710,13 +3707,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3758,13 +3755,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3806,13 +3803,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3854,13 +3851,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3902,13 +3899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3950,13 +3947,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3998,13 +3995,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4046,13 +4043,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4094,13 +4091,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4142,13 +4139,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4388,7 +4385,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4436,7 +4433,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5172,18 +5169,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="64.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="55.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="129.7109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -5234,7 +5231,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5251,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5268,7 +5265,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5293,16 +5290,16 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5375,7 +5372,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -5438,7 +5435,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5446,7 +5443,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -5455,7 +5452,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5472,7 +5469,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5489,7 +5486,7 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5506,7 +5503,7 @@
         <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5529,16 +5526,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5546,16 +5543,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5563,16 +5560,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5580,16 +5577,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5597,16 +5594,16 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5614,16 +5611,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5631,16 +5628,16 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5648,67 +5645,67 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>114</v>
+      <c r="B29" t="s">
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>120</v>
+      <c r="B31" t="s">
+        <v>119</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5716,16 +5713,16 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5733,16 +5730,16 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5750,16 +5747,16 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5767,16 +5764,16 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5784,33 +5781,33 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
         <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" t="s">
         <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5824,7 +5821,7 @@
         <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>135</v>
@@ -5875,7 +5872,7 @@
         <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>138</v>
@@ -5886,50 +5883,50 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>159</v>
+      <c r="B43" t="s">
+        <v>158</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
         <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>160</v>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5937,16 +5934,16 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5954,33 +5951,33 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="B47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" t="s">
-        <v>164</v>
+      <c r="B47" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -5988,33 +5985,33 @@
         <v>21</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>166</v>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6022,33 +6019,33 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" t="s">
-        <v>168</v>
+      <c r="B51" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6056,33 +6053,33 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
         <v>171</v>
-      </c>
-      <c r="C52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>174</v>
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6090,16 +6087,16 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6107,16 +6104,16 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6124,16 +6121,16 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6141,33 +6138,16 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6189,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6217,7 +6197,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6225,7 +6205,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6233,7 +6213,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6241,7 +6221,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6249,7 +6229,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6257,7 +6237,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6265,7 +6245,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6273,7 +6253,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6285,10 +6265,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B60" sqref="B60:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6313,746 +6294,746 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>128</v>
+      <c r="B11" t="s">
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="4">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="4">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="4">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>159</v>
+      <c r="B31" t="s">
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>96</v>
       </c>
       <c r="D31" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>160</v>
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>96</v>
       </c>
       <c r="D32" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>107</v>
+      <c r="C53" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D53" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>107</v>
+      <c r="B54" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D54" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -7060,13 +7041,13 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D55" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -7074,13 +7055,13 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -7088,13 +7069,13 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
       </c>
       <c r="D57" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -7102,41 +7083,41 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
       </c>
       <c r="D58" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>119</v>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
       </c>
       <c r="D59" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>119</v>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
       </c>
       <c r="D60" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -7144,27 +7125,27 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>119</v>
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
       </c>
       <c r="D61" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
-      <c r="B62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>119</v>
+      <c r="B62" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
       </c>
       <c r="D62" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -7172,55 +7153,55 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>119</v>
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
       </c>
       <c r="D63" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
       </c>
       <c r="D64" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>119</v>
+        <v>21</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
       </c>
       <c r="D65" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
-      <c r="B66" t="s">
-        <v>205</v>
+      <c r="B66" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -7228,229 +7209,82 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
-      <c r="B68" t="s">
-        <v>167</v>
+      <c r="B68" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
-      <c r="B69" t="s">
-        <v>168</v>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="D70" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A38:D55">
-    <sortCondition ref="C2:C77"/>
-    <sortCondition ref="D2:D77"/>
+  <autoFilter ref="A1:D70">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FG_ForecastManagementAggrPrelevato"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A55:D72">
+    <sortCondition ref="C2:C72"/>
+    <sortCondition ref="D2:D72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7619,10 +7453,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -7633,10 +7467,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5">
         <v>15</v>
@@ -7647,7 +7481,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
@@ -7661,7 +7495,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -7675,7 +7509,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -7686,13 +7520,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5">
         <v>16</v>
@@ -7700,13 +7534,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5">
         <v>30</v>
@@ -7717,10 +7551,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5">
         <v>50</v>
@@ -7731,10 +7565,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="5">
         <v>75</v>
@@ -7752,7 +7586,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -7907,10 +7741,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -7921,10 +7755,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -7935,7 +7769,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
@@ -7949,7 +7783,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -7963,7 +7797,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -7977,10 +7811,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -7991,10 +7825,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -8011,7 +7845,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -8025,7 +7859,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -8039,7 +7873,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -8053,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -8067,7 +7901,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -8081,7 +7915,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -8095,7 +7929,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -8109,7 +7943,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -8123,7 +7957,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -8131,13 +7965,13 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -8145,13 +7979,13 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -8159,13 +7993,13 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -8173,13 +8007,13 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -8187,13 +8021,13 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -8201,13 +8035,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -8215,13 +8049,13 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -8229,13 +8063,13 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -8243,13 +8077,13 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -8257,13 +8091,13 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -8271,13 +8105,13 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8377,7 +8211,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8388,7 +8222,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8399,7 +8233,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8410,7 +8244,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8421,7 +8255,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -8468,15 +8302,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="74.140625" style="8" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
   </cols>
@@ -8492,7 +8327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -8503,7 +8338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
@@ -8514,7 +8349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -8525,7 +8360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -8536,7 +8371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8547,7 +8382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -8558,7 +8393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -8569,7 +8404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -8580,7 +8415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -8602,177 +8437,177 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
+        <v>194</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="C15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>201</v>
-      </c>
       <c r="C16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>158</v>
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
-      <c r="B24" t="s">
-        <v>89</v>
+      <c r="B24" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>198</v>
-      </c>
       <c r="C25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
@@ -8780,145 +8615,145 @@
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>116</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>120</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>100</v>
       </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>121</v>
       </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>123</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -8926,222 +8761,220 @@
         <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>133</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>159</v>
       </c>
-      <c r="B44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="B46" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" t="s">
         <v>160</v>
       </c>
-      <c r="B45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="49" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>165</v>
       </c>
-      <c r="B49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>167</v>
-      </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>168</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>171</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
         <v>172</v>
       </c>
-      <c r="C53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="C54" t="s">
         <v>173</v>
       </c>
-      <c r="B54" t="s">
-        <v>207</v>
-      </c>
-      <c r="C54" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>174</v>
+      <c r="A55" t="s">
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C58">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Schedula previsione rolling"/>
+        <filter val="Schedula previsione rolling a monte aggregati sottostanti"/>
+        <filter val="Schedula Previsione Rolling a monte sottostanti"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9151,8 +8984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -9174,118 +9007,110 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B88BEDE3A7878C4B83DDF76392E4AF43" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3c9c3c33ec171c11194a64c89f5a23db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85f92fa7f7bbf34a5eeb9e781f8a7e8d">
     <xsd:element name="properties">
@@ -9399,6 +9224,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9406,14 +9240,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9425,6 +9251,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Activities Labels" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$E$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Actions in Activity'!$A$1:$D$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$E$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Actions in Activity'!$A$1:$D$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activities in Page'!$A$1:$D$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Activities Labels'!$A$1:$C$10</definedName>
   </definedNames>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="221">
   <si>
     <t>Operation</t>
   </si>
@@ -643,9 +643,6 @@
     <t>forecast_scope=PrelevatoAggr&amp;kpiFormula=LIB_UtilFunctions.defaultMape&amp;kpiFormulaLabel=MAPE %</t>
   </si>
   <si>
-    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;withDate=NO&amp;partitioningEnabled=TRUE&amp;weightMainAttribute=PRC_LIVELLO_SERVIZIO&amp;</t>
-  </si>
-  <si>
     <t>Schedule KPI on objects in current aggr</t>
   </si>
   <si>
@@ -673,12 +670,6 @@
     <t>Schedule Forecast TopDown Propagation Prelevato</t>
   </si>
   <si>
-    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;withDate=YES&amp;partitioningEnabled=TRUE&amp;weightMainAttribute=PRC_LIVELLO_SERVIZIO&amp;</t>
-  </si>
-  <si>
-    <t>Schedula previsione rolling</t>
-  </si>
-  <si>
     <t>Gestione serie di input per tipo di previsione</t>
   </si>
   <si>
@@ -712,9 +703,6 @@
     <t>forecast_scope=Prelevato&amp;covarSelectionComparisonPeriodLength=90&amp;</t>
   </si>
   <si>
-    <t>forecast_scope=Prelevato&amp;mode=LEVEL&amp;withDate=YES&amp;</t>
-  </si>
-  <si>
     <t>Schedule Forecast Level Prelevato</t>
   </si>
   <si>
@@ -736,9 +724,6 @@
     <t>A_PuntoPrelievo Schedule Estimation for Instances In Aggregate</t>
   </si>
   <si>
-    <t>A_PuntoPrelievo  Schedule Forecast For Instances In Aggregate</t>
-  </si>
-  <si>
     <t>A_PuntoPrelievo Schedule Forecast For Instances In Aggregate Rolling</t>
   </si>
   <si>
@@ -751,9 +736,6 @@
     <t>Schedule rolling forecast Below Level</t>
   </si>
   <si>
-    <t>wizardName=Aggr_scheduleKpiForAggrs&amp;optionalParam1=PUNTOPRELIEVO_PRELEVATO</t>
-  </si>
-  <si>
     <t>A_PuntoDiPrelievo Time Series Chart</t>
   </si>
   <si>
@@ -854,6 +836,42 @@
   </si>
   <si>
     <t>Schedula Previsione  a monte sottostanti</t>
+  </si>
+  <si>
+    <t>wizardName=Aggr_scheduleKpiForAggrs&amp;optionalParam1=A_PUNTOPRELIEVO_PRELEVATO_MONTE</t>
+  </si>
+  <si>
+    <t>Schedule Forecast TopDown Rolling Prelevato</t>
+  </si>
+  <si>
+    <t>Schedule Forecast TopDown Prelevato</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;withDate=NO&amp;</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;withDate=YES&amp;</t>
+  </si>
+  <si>
+    <t>Scedula previsone a monte rolling</t>
+  </si>
+  <si>
+    <t>Scedula previsone a monte</t>
+  </si>
+  <si>
+    <t>Schedula riproporzione a monte rolling</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;withDate=NO&amp;partitioningEnabled=TRUE&amp;weightMainAttribute=PesoPunto&amp;</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;withDate=YES&amp;partitioningEnabled=TRUE&amp;weightMainAttribute=PesoPunto&amp;</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;mode=TOPDOWN&amp;</t>
+  </si>
+  <si>
+    <t>forecast_scope=PrelevatoAggr&amp;mode=LEVEL&amp;withDate=YES&amp;</t>
   </si>
 </sst>
 </file>
@@ -937,7 +955,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +985,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -980,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,6 +1025,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5169,10 +5195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5200,7 +5227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -5217,7 +5244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5231,10 +5258,10 @@
         <v>24</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5251,7 +5278,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5265,10 +5292,10 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5285,15 +5312,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -5302,7 +5329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5319,7 +5346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5336,7 +5363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5353,7 +5380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5370,7 +5397,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -5387,7 +5414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5404,7 +5431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5421,7 +5448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5435,15 +5462,15 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -5455,7 +5482,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -5469,10 +5496,10 @@
         <v>24</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5486,10 +5513,10 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5506,7 +5533,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5521,7 +5548,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5538,7 +5565,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5572,7 +5599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5589,7 +5616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5606,7 +5633,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -5620,10 +5647,10 @@
         <v>24</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -5640,7 +5667,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -5657,7 +5684,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -5671,10 +5698,10 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5691,7 +5718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5705,10 +5732,10 @@
         <v>24</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -5725,7 +5752,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -5742,7 +5769,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5759,7 +5786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -5776,7 +5803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -5793,7 +5820,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -5810,7 +5837,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -5827,7 +5854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -5844,7 +5871,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -5861,7 +5888,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -5878,66 +5905,66 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
         <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -5946,15 +5973,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -5963,41 +5990,41 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -6014,15 +6041,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
@@ -6031,75 +6058,75 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
         <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
       </c>
       <c r="E52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>176</v>
-      </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -6113,24 +6140,24 @@
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6138,7 +6165,7 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -6147,10 +6174,51 @@
         <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>167</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E59">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Schedule Forecast Level Prelevato"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6163,7 +6231,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6245,7 +6313,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6253,7 +6321,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6266,10 +6334,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6299,10 +6367,10 @@
         <v>139</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -6313,10 +6381,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -6327,7 +6395,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>126</v>
@@ -6411,7 +6479,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
@@ -6579,7 +6647,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
@@ -6593,7 +6661,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>118</v>
@@ -7027,7 +7095,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>118</v>
@@ -7036,12 +7104,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -7050,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -7064,12 +7132,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
         <v>94</v>
@@ -7078,12 +7146,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
         <v>94</v>
@@ -7092,12 +7160,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
         <v>94</v>
@@ -7108,7 +7176,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -7120,12 +7188,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
         <v>94</v>
@@ -7134,12 +7202,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
         <v>94</v>
@@ -7148,12 +7216,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
         <v>94</v>
@@ -7162,68 +7230,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" t="s">
-        <v>175</v>
+        <v>21</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>94</v>
       </c>
       <c r="D64" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>74</v>
+      <c r="B65" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C65" t="s">
         <v>94</v>
       </c>
       <c r="D65" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>113</v>
+      <c r="B66" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C66" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>170</v>
+      <c r="B68" t="s">
+        <v>211</v>
       </c>
       <c r="C68" t="s">
         <v>94</v>
@@ -7232,59 +7300,87 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>153</v>
+      <c r="B69" t="s">
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
-      <c r="B70" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" t="s">
-        <v>181</v>
+      <c r="B70" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="4">
-        <v>90</v>
+      <c r="D72" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D70">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:D73">
+    <filterColumn colId="1">
       <filters>
-        <filter val="FG_ForecastManagementAggrPrelevato"/>
+        <filter val="Schedule Forecast Level Rolling Prelevato"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A55:D72">
-    <sortCondition ref="C2:C72"/>
-    <sortCondition ref="D2:D72"/>
+  <sortState ref="A55:D73">
+    <sortCondition ref="C2:C73"/>
+    <sortCondition ref="D2:D73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7295,10 +7391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -7537,7 +7633,7 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>97</v>
@@ -7565,13 +7661,27 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="5">
         <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7583,10 +7693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -7825,7 +7935,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>97</v>
@@ -7845,7 +7955,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7859,7 +7969,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7873,7 +7983,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7887,7 +7997,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7901,7 +8011,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7915,7 +8025,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7929,7 +8039,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7943,7 +8053,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7957,7 +8067,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7971,7 +8081,7 @@
         <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7985,7 +8095,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7999,7 +8109,7 @@
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -8013,7 +8123,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -8027,7 +8137,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -8041,7 +8151,7 @@
         <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -8049,13 +8159,13 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -8063,13 +8173,13 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -8077,13 +8187,13 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -8091,13 +8201,13 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -8105,13 +8215,27 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8211,7 +8335,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8222,7 +8346,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8233,7 +8357,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8244,7 +8368,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8255,7 +8379,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -8303,10 +8427,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8472,13 +8596,13 @@
     </row>
     <row r="15" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -8519,7 +8643,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -8574,10 +8698,10 @@
         <v>102</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -8613,15 +8737,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -8629,10 +8753,10 @@
         <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -8780,84 +8904,84 @@
     </row>
     <row r="43" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>153</v>
+      <c r="A45" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -8868,7 +8992,7 @@
     </row>
     <row r="51" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -8879,57 +9003,57 @@
     </row>
     <row r="52" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
         <v>174</v>
-      </c>
-      <c r="B54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -8937,40 +9061,60 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" t="s">
-        <v>214</v>
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C58">
+  <autoFilter ref="A1:C61">
     <filterColumn colId="1">
       <filters>
-        <filter val="Schedula previsione rolling"/>
-        <filter val="Schedula previsione rolling a monte aggregati sottostanti"/>
         <filter val="Schedula Previsione Rolling a monte sottostanti"/>
       </filters>
     </filterColumn>
@@ -8985,7 +9129,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -9010,10 +9154,10 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -9021,10 +9165,10 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -9032,10 +9176,10 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -9043,7 +9187,7 @@
         <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>117</v>
@@ -9054,7 +9198,7 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
@@ -9065,10 +9209,10 @@
         <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -9084,24 +9228,24 @@
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
         <v>148</v>
       </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9111,6 +9255,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B88BEDE3A7878C4B83DDF76392E4AF43" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3c9c3c33ec171c11194a64c89f5a23db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85f92fa7f7bbf34a5eeb9e781f8a7e8d">
     <xsd:element name="properties">
@@ -9224,22 +9383,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9253,27 +9420,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
@@ -23,9 +23,9 @@
     <sheet name="Activities Labels" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$E$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Actions in Activity'!$A$1:$D$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$E$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Actions in Activity'!$A$1:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Actions Labels'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Activities in Page'!$A$1:$D$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Activities Labels'!$A$1:$C$10</definedName>
   </definedNames>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="214">
   <si>
     <t>Operation</t>
   </si>
@@ -421,9 +421,6 @@
     <t>Schedule Forecast Level Rolling Prelevato</t>
   </si>
   <si>
-    <t>Schedule Estimation Level Prelevato</t>
-  </si>
-  <si>
     <t>Models Status Report Prelevato</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>forecast_scope=Prelevato&amp;mode=LEVEL&amp;withDate=NO&amp;</t>
   </si>
   <si>
-    <t>forecast_scope=Prelevato&amp;mode=LEVEL&amp;</t>
-  </si>
-  <si>
     <t>wizardName=RPM&amp;optionalParam1=Prelevato&amp;</t>
   </si>
   <si>
@@ -592,9 +586,6 @@
     <t>FG_ForecastManagementAggrVersamento</t>
   </si>
   <si>
-    <t>Forecast Management BottomUp Versamento</t>
-  </si>
-  <si>
     <t>Schedule Estimation BottomUp Versamento</t>
   </si>
   <si>
@@ -610,9 +601,6 @@
     <t>Schedule Estimation Level Versamento</t>
   </si>
   <si>
-    <t>Forecast Management bottom up Versamento</t>
-  </si>
-  <si>
     <t>forecast_scope=Versamento&amp;mode=BOTTOMUP&amp;</t>
   </si>
   <si>
@@ -643,12 +631,6 @@
     <t>forecast_scope=PrelevatoAggr&amp;kpiFormula=LIB_UtilFunctions.defaultMape&amp;kpiFormulaLabel=MAPE %</t>
   </si>
   <si>
-    <t>Schedule KPI on objects in current aggr</t>
-  </si>
-  <si>
-    <t>Schedule KPI on aggregates contained in current one</t>
-  </si>
-  <si>
     <t>Schedula i KPI per il fabbisogno atteso sull'aggregato corrente e tutti i sottostanti</t>
   </si>
   <si>
@@ -704,9 +686,6 @@
   </si>
   <si>
     <t>Schedule Forecast Level Prelevato</t>
-  </si>
-  <si>
-    <t>Schedule KPI on objects in current aggr PrelievoAggr</t>
   </si>
   <si>
     <t>Schedule KPI on aggregates contained in current one  PrelievoAggr</t>
@@ -1099,7 +1078,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1147,7 +1126,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1189,13 +1168,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1237,13 +1216,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1285,13 +1264,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1333,13 +1312,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1381,13 +1360,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1429,13 +1408,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1477,13 +1456,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1525,13 +1504,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1573,13 +1552,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1621,13 +1600,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1669,13 +1648,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1717,13 +1696,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1765,13 +1744,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1813,13 +1792,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1861,13 +1840,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1909,13 +1888,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1957,13 +1936,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2005,13 +1984,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2053,13 +2032,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2101,13 +2080,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2149,13 +2128,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2197,13 +2176,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2245,13 +2224,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2293,13 +2272,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2341,13 +2320,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2389,13 +2368,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2437,13 +2416,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2485,13 +2464,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2533,13 +2512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2581,13 +2560,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2629,13 +2608,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2677,13 +2656,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2725,13 +2704,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2773,13 +2752,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2821,13 +2800,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2869,13 +2848,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2917,13 +2896,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2965,13 +2944,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3013,13 +2992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3061,13 +3040,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3109,13 +3088,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3157,13 +3136,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3205,13 +3184,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3253,13 +3232,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3301,13 +3280,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3349,13 +3328,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3397,13 +3376,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3445,13 +3424,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3493,13 +3472,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3541,13 +3520,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3589,13 +3568,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3637,13 +3616,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3685,13 +3664,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3733,13 +3712,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3781,13 +3760,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3829,13 +3808,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3877,13 +3856,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3925,13 +3904,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3973,13 +3952,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4021,13 +4000,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4069,13 +4048,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4117,13 +4096,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4165,13 +4144,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4411,7 +4390,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4459,7 +4438,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5196,10 +5175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5258,7 +5237,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5275,7 +5254,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5292,7 +5271,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5317,16 +5296,16 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5394,12 +5373,12 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -5408,10 +5387,10 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5419,16 +5398,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5436,16 +5415,16 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5453,50 +5432,50 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>204</v>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5510,10 +5489,10 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5521,48 +5500,48 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20"/>
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5570,16 +5549,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5587,13 +5566,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -5604,50 +5583,50 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
+      <c r="B25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>178</v>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5655,13 +5634,13 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>110</v>
@@ -5672,16 +5651,16 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5695,10 +5674,10 @@
         <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5706,16 +5685,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
+        <v>24</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5723,16 +5702,16 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>198</v>
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5740,16 +5719,16 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5757,16 +5736,16 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5774,16 +5753,16 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5791,16 +5770,16 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5808,16 +5787,16 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5825,16 +5804,16 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5842,16 +5821,16 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5859,16 +5838,16 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5876,33 +5855,33 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" t="s">
-        <v>132</v>
+        <v>148</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5910,16 +5889,16 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5927,16 +5906,16 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5944,16 +5923,16 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5961,33 +5940,33 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
-      <c r="B46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" t="s">
-        <v>158</v>
+      <c r="B46" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -5995,33 +5974,33 @@
         <v>21</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>160</v>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -6029,50 +6008,50 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" t="s">
-        <v>162</v>
+      <c r="B50" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>166</v>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -6080,16 +6059,16 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -6097,16 +6076,16 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -6114,16 +6093,16 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -6131,16 +6110,16 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -6148,33 +6127,33 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -6182,40 +6161,24 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
         <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E59">
+  <autoFilter ref="A1:E58">
     <filterColumn colId="1">
       <filters>
-        <filter val="Schedule Forecast Level Prelevato"/>
+        <filter val="Schedule KPI on objects in current aggr Prelievo"/>
+        <filter val="Schedule KPI on objects in current aggr Versamento"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6257,7 +6220,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6265,7 +6228,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6273,7 +6236,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6281,7 +6244,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6289,7 +6252,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6297,7 +6260,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6305,7 +6268,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6313,7 +6276,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6321,7 +6284,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6333,11 +6296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6362,441 +6324,441 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>144</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2">
+        <v>124</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -6804,391 +6766,391 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="4">
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="4">
         <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="4">
-        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
+        <v>21</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D60" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -7196,188 +7158,153 @@
         <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>170</v>
+      <c r="B62" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
-      <c r="B63" t="s">
-        <v>171</v>
+      <c r="B63" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D63" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>74</v>
+      <c r="B64" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D64" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>113</v>
+      <c r="B65" t="s">
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D65" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>152</v>
+      <c r="B66" t="s">
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D66" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="D67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>118</v>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
       </c>
       <c r="D70" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
-      <c r="B71" t="s">
-        <v>155</v>
+      <c r="B71" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D71" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="4">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D73">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Schedule Forecast Level Rolling Prelevato"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A55:D73">
     <sortCondition ref="C2:C73"/>
     <sortCondition ref="D2:D73"/>
@@ -7549,10 +7476,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -7563,10 +7490,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="D12" s="5">
         <v>15</v>
@@ -7577,7 +7504,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
@@ -7591,7 +7518,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -7605,7 +7532,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -7616,13 +7543,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5">
         <v>16</v>
@@ -7630,13 +7557,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5">
         <v>30</v>
@@ -7647,10 +7574,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5">
         <v>50</v>
@@ -7661,10 +7588,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="5">
         <v>75</v>
@@ -7678,7 +7605,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5">
         <v>100</v>
@@ -7851,10 +7778,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -7865,10 +7792,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -7879,7 +7806,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
@@ -7893,7 +7820,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -7907,7 +7834,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -7921,10 +7848,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -7935,10 +7862,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -7955,7 +7882,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7969,7 +7896,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7983,7 +7910,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7997,7 +7924,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -8011,7 +7938,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -8025,7 +7952,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -8039,7 +7966,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -8053,7 +7980,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -8067,7 +7994,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -8075,13 +8002,13 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -8089,13 +8016,13 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -8103,13 +8030,13 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -8117,13 +8044,13 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -8131,13 +8058,13 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -8145,13 +8072,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -8159,13 +8086,13 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -8173,13 +8100,13 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -8187,13 +8114,13 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -8201,13 +8128,13 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -8215,13 +8142,13 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -8232,7 +8159,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -8335,7 +8262,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8346,7 +8273,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8357,7 +8284,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8368,7 +8295,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8379,7 +8306,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -8426,11 +8353,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8451,7 +8377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -8462,7 +8388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
@@ -8473,7 +8399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -8484,7 +8410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -8495,7 +8421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8506,7 +8432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -8517,7 +8443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -8528,7 +8454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -8539,7 +8465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -8555,103 +8481,103 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
       <c r="C18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -8660,9 +8586,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -8671,9 +8597,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -8682,86 +8608,86 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
       <c r="C27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -8770,9 +8696,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
@@ -8781,9 +8707,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -8792,9 +8718,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -8803,20 +8729,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -8825,300 +8751,261 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>129</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>130</v>
-      </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>131</v>
+      <c r="A41" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>132</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>155</v>
       </c>
-      <c r="B44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>175</v>
-      </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>73</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
         <v>207</v>
       </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" t="s">
         <v>208</v>
       </c>
-      <c r="C59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B61" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" t="s">
-        <v>215</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C61">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Schedula Previsione Rolling a monte sottostanti"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9151,101 +9038,101 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9255,21 +9142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B88BEDE3A7878C4B83DDF76392E4AF43" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3c9c3c33ec171c11194a64c89f5a23db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85f92fa7f7bbf34a5eeb9e781f8a7e8d">
     <xsd:element name="properties">
@@ -9383,7 +9255,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -9398,26 +9301,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/08_Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="1000" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -5177,15 +5177,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="64.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="55" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="129.7109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -5393,7 +5393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -6175,10 +6175,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E58">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Schedule KPI on objects in current aggr Prelievo"/>
-        <filter val="Schedule KPI on objects in current aggr Versamento"/>
+        <filter val="[Wizard Editor] Wizard Execution On Instance"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6298,7 +6297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -9142,6 +9141,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B88BEDE3A7878C4B83DDF76392E4AF43" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3c9c3c33ec171c11194a64c89f5a23db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85f92fa7f7bbf34a5eeb9e781f8a7e8d">
     <xsd:element name="properties">
@@ -9255,12 +9260,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9271,6 +9270,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9286,21 +9300,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
   <ds:schemaRefs>
